--- a/mensajes entrada.xlsx
+++ b/mensajes entrada.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
   <si>
     <t>MENSAJE</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Muy buenos días</t>
   </si>
   <si>
-    <t>Hola</t>
-  </si>
-  <si>
     <t>Buenos días</t>
   </si>
   <si>
@@ -91,6 +88,72 @@
   </si>
   <si>
     <t>¿Con quién tengo el gusto?</t>
+  </si>
+  <si>
+    <t>Hola Hola</t>
+  </si>
+  <si>
+    <t>Mi nombre es Antonio, ¿Cual es el tuyo?</t>
+  </si>
+  <si>
+    <t>¿Aló?</t>
+  </si>
+  <si>
+    <t>¿Cómo está?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buenas noches </t>
+  </si>
+  <si>
+    <t>Buenas tardes</t>
+  </si>
+  <si>
+    <t>Hasta siempre</t>
+  </si>
+  <si>
+    <t>Saludos cordiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasta pronto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Cuídate! </t>
+  </si>
+  <si>
+    <t>Un abrazo</t>
+  </si>
+  <si>
+    <t>¿Qué hay de nuevo?</t>
+  </si>
+  <si>
+    <t>¿Qué me cuentas?</t>
+  </si>
+  <si>
+    <t>Hasta nunca</t>
+  </si>
+  <si>
+    <t>Hasta mañana</t>
+  </si>
+  <si>
+    <t>Hasta la otra semana</t>
+  </si>
+  <si>
+    <t>Hasta el próximo fin de semana</t>
+  </si>
+  <si>
+    <t>Te veo luego</t>
+  </si>
+  <si>
+    <t>Nos estamos viendo</t>
+  </si>
+  <si>
+    <t>¿Cómo va todo?</t>
+  </si>
+  <si>
+    <t>¿Qué haces?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Chao, Cuídate! </t>
   </si>
 </sst>
 </file>
@@ -408,19 +471,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,155 +491,339 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>3</v>
       </c>
     </row>

--- a/mensajes entrada.xlsx
+++ b/mensajes entrada.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44B331E-DC74-4FAA-9BC6-4802DBC1CC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>MENSAJE</t>
   </si>
@@ -79,9 +80,6 @@
   </si>
   <si>
     <t>¿Cómo te llamas?</t>
-  </si>
-  <si>
-    <t>¿Cuál es tu gracias?</t>
   </si>
   <si>
     <t>¿Con quién hablo?</t>
@@ -159,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -470,20 +468,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -499,7 +497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -507,7 +505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -515,7 +513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -523,71 +521,71 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -595,7 +593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -603,7 +601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -611,23 +609,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -635,15 +633,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -651,79 +649,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -731,23 +729,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -755,7 +753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -763,15 +761,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -779,7 +777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -787,7 +785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -795,7 +793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -803,27 +801,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
       <c r="B42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
         <v>3</v>
       </c>
     </row>
